--- a/4_assets_Case_1.xlsx
+++ b/4_assets_Case_1.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,16 +418,16 @@
         <v>40422</v>
       </c>
       <c r="B2">
-        <v>34.65056228637695</v>
+        <v>34.38395690917969</v>
       </c>
       <c r="C2">
-        <v>90.35374450683594</v>
+        <v>89.71644592285156</v>
       </c>
       <c r="D2">
         <v>30.01000022888184</v>
       </c>
       <c r="E2">
-        <v>90.20572662353516</v>
+        <v>89.70944976806641</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -435,16 +435,16 @@
         <v>40452</v>
       </c>
       <c r="B3">
-        <v>35.94965362548828</v>
+        <v>35.67306137084961</v>
       </c>
       <c r="C3">
-        <v>92.50032043457031</v>
+        <v>91.84786987304688</v>
       </c>
       <c r="D3">
         <v>30.8799991607666</v>
       </c>
       <c r="E3">
-        <v>90.38726043701172</v>
+        <v>89.88992309570312</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -452,16 +452,16 @@
         <v>40483</v>
       </c>
       <c r="B4">
-        <v>35.16377258300781</v>
+        <v>34.89321899414062</v>
       </c>
       <c r="C4">
-        <v>90.83932495117188</v>
+        <v>90.19861602783203</v>
       </c>
       <c r="D4">
         <v>31.26000022888184</v>
       </c>
       <c r="E4">
-        <v>89.74657440185547</v>
+        <v>89.25275421142578</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -469,16 +469,16 @@
         <v>40513</v>
       </c>
       <c r="B5">
-        <v>37.53742980957031</v>
+        <v>37.24861526489258</v>
       </c>
       <c r="C5">
-        <v>89.41730499267578</v>
+        <v>88.78662109375</v>
       </c>
       <c r="D5">
         <v>34.09999847412109</v>
       </c>
       <c r="E5">
-        <v>88.57786560058594</v>
+        <v>88.09050750732422</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -486,16 +486,16 @@
         <v>40544</v>
       </c>
       <c r="B6">
-        <v>38.30866622924805</v>
+        <v>38.013916015625</v>
       </c>
       <c r="C6">
-        <v>89.80056762695312</v>
+        <v>89.16725158691406</v>
       </c>
       <c r="D6">
         <v>35.15999984741211</v>
       </c>
       <c r="E6">
-        <v>89.24205780029297</v>
+        <v>88.75105285644531</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -503,16 +503,16 @@
         <v>40575</v>
       </c>
       <c r="B7">
-        <v>39.49897384643555</v>
+        <v>39.19507217407227</v>
       </c>
       <c r="C7">
-        <v>90.30999755859375</v>
+        <v>89.67302703857422</v>
       </c>
       <c r="D7">
         <v>36.09000015258789</v>
       </c>
       <c r="E7">
-        <v>89.09358215332031</v>
+        <v>88.60343170166016</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -520,16 +520,16 @@
         <v>40603</v>
       </c>
       <c r="B8">
-        <v>39.15888595581055</v>
+        <v>38.85759353637695</v>
       </c>
       <c r="C8">
-        <v>91.29261779785156</v>
+        <v>90.64871978759766</v>
       </c>
       <c r="D8">
         <v>37.34999847412109</v>
       </c>
       <c r="E8">
-        <v>89.03287506103516</v>
+        <v>88.54305267333984</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -537,16 +537,16 @@
         <v>40634</v>
       </c>
       <c r="B9">
-        <v>41.04557418823242</v>
+        <v>40.72977066040039</v>
       </c>
       <c r="C9">
-        <v>93.20137023925781</v>
+        <v>92.54402923583984</v>
       </c>
       <c r="D9">
         <v>38.93999862670898</v>
       </c>
       <c r="E9">
-        <v>90.03331756591797</v>
+        <v>89.53799438476562</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -554,16 +554,16 @@
         <v>40664</v>
       </c>
       <c r="B10">
-        <v>40.24393081665039</v>
+        <v>39.93429565429688</v>
       </c>
       <c r="C10">
-        <v>93.44807434082031</v>
+        <v>92.78900146484375</v>
       </c>
       <c r="D10">
         <v>36.27000045776367</v>
       </c>
       <c r="E10">
-        <v>90.96395111083984</v>
+        <v>90.46350860595703</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -571,16 +571,16 @@
         <v>40695</v>
       </c>
       <c r="B11">
-        <v>39.06982040405273</v>
+        <v>38.76921844482422</v>
       </c>
       <c r="C11">
-        <v>93.76365661621094</v>
+        <v>93.10234069824219</v>
       </c>
       <c r="D11">
         <v>34.11000061035156</v>
       </c>
       <c r="E11">
-        <v>90.87821197509766</v>
+        <v>90.37821960449219</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -588,16 +588,16 @@
         <v>40725</v>
       </c>
       <c r="B12">
-        <v>38.63391494750977</v>
+        <v>38.3366584777832</v>
       </c>
       <c r="C12">
-        <v>97.67949676513672</v>
+        <v>96.99053192138672</v>
       </c>
       <c r="D12">
         <v>35.18999862670898</v>
       </c>
       <c r="E12">
-        <v>91.98584747314453</v>
+        <v>91.479736328125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -605,16 +605,16 @@
         <v>40756</v>
       </c>
       <c r="B13">
-        <v>35.79065704345703</v>
+        <v>35.51527786254883</v>
       </c>
       <c r="C13">
-        <v>98.47984313964844</v>
+        <v>97.78525543212891</v>
       </c>
       <c r="D13">
         <v>34.59000015258789</v>
       </c>
       <c r="E13">
-        <v>93.09616851806641</v>
+        <v>92.58396148681641</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -622,16 +622,16 @@
         <v>40787</v>
       </c>
       <c r="B14">
-        <v>32.05426788330078</v>
+        <v>31.80764198303223</v>
       </c>
       <c r="C14">
-        <v>98.96623229980469</v>
+        <v>98.26825714111328</v>
       </c>
       <c r="D14">
         <v>30.19000053405762</v>
       </c>
       <c r="E14">
-        <v>93.19537353515625</v>
+        <v>92.68267059326172</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -639,16 +639,16 @@
         <v>40817</v>
       </c>
       <c r="B15">
-        <v>35.68413162231445</v>
+        <v>35.40957641601562</v>
       </c>
       <c r="C15">
-        <v>100.8712692260742</v>
+        <v>100.1598052978516</v>
       </c>
       <c r="D15">
         <v>33.29000091552734</v>
       </c>
       <c r="E15">
-        <v>93.44890594482422</v>
+        <v>92.93476867675781</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -656,16 +656,16 @@
         <v>40848</v>
       </c>
       <c r="B16">
-        <v>35.27443695068359</v>
+        <v>35.00303268432617</v>
       </c>
       <c r="C16">
-        <v>101.2409896850586</v>
+        <v>100.5269317626953</v>
       </c>
       <c r="D16">
         <v>33.79000091552734</v>
       </c>
       <c r="E16">
-        <v>93.04405975341797</v>
+        <v>92.53212738037109</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -673,16 +673,16 @@
         <v>40878</v>
       </c>
       <c r="B17">
-        <v>34.55338287353516</v>
+        <v>34.28752899169922</v>
       </c>
       <c r="C17">
-        <v>101.5113525390625</v>
+        <v>100.7953414916992</v>
       </c>
       <c r="D17">
         <v>32.97999954223633</v>
       </c>
       <c r="E17">
-        <v>93.90168762207031</v>
+        <v>93.38505554199219</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -690,16 +690,16 @@
         <v>40909</v>
       </c>
       <c r="B18">
-        <v>36.85313034057617</v>
+        <v>36.569580078125</v>
       </c>
       <c r="C18">
-        <v>104.0488433837891</v>
+        <v>103.3149566650391</v>
       </c>
       <c r="D18">
         <v>33.77000045776367</v>
       </c>
       <c r="E18">
-        <v>95.13078308105469</v>
+        <v>94.607421875</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -707,16 +707,16 @@
         <v>40940</v>
       </c>
       <c r="B19">
-        <v>38.6759033203125</v>
+        <v>38.37833023071289</v>
       </c>
       <c r="C19">
-        <v>103.4473266601562</v>
+        <v>102.7177124023438</v>
       </c>
       <c r="D19">
         <v>35.86999893188477</v>
       </c>
       <c r="E19">
-        <v>94.72416687011719</v>
+        <v>94.20301818847656</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -724,16 +724,16 @@
         <v>40969</v>
       </c>
       <c r="B20">
-        <v>39.10673904418945</v>
+        <v>38.80584716796875</v>
       </c>
       <c r="C20">
-        <v>102.5581817626953</v>
+        <v>101.8348541259766</v>
       </c>
       <c r="D20">
         <v>34.77999877929688</v>
       </c>
       <c r="E20">
-        <v>94.31513214111328</v>
+        <v>93.79619598388672</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -741,16 +741,16 @@
         <v>41000</v>
       </c>
       <c r="B21">
-        <v>38.65933227539062</v>
+        <v>38.36188888549805</v>
       </c>
       <c r="C21">
-        <v>104.1011276245117</v>
+        <v>103.3669204711914</v>
       </c>
       <c r="D21">
         <v>34.65999984741211</v>
       </c>
       <c r="E21">
-        <v>95.15843200683594</v>
+        <v>94.6348876953125</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -758,16 +758,16 @@
         <v>41030</v>
       </c>
       <c r="B22">
-        <v>35.0717887878418</v>
+        <v>34.80194091796875</v>
       </c>
       <c r="C22">
-        <v>106.0407028198242</v>
+        <v>105.2927856445312</v>
       </c>
       <c r="D22">
         <v>30.22999954223633</v>
       </c>
       <c r="E22">
-        <v>95.64962005615234</v>
+        <v>95.12339782714844</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -775,16 +775,16 @@
         <v>41061</v>
       </c>
       <c r="B23">
-        <v>36.34772491455078</v>
+        <v>36.06806945800781</v>
       </c>
       <c r="C23">
-        <v>105.0079498291016</v>
+        <v>104.2673034667969</v>
       </c>
       <c r="D23">
         <v>30.44000053405762</v>
       </c>
       <c r="E23">
-        <v>95.70652770996094</v>
+        <v>95.17997741699219</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -792,16 +792,16 @@
         <v>41091</v>
       </c>
       <c r="B24">
-        <v>37.15312194824219</v>
+        <v>36.86726760864258</v>
       </c>
       <c r="C24">
-        <v>107.2451477050781</v>
+        <v>106.4887390136719</v>
       </c>
       <c r="D24">
         <v>32.22999954223633</v>
       </c>
       <c r="E24">
-        <v>96.63762664794922</v>
+        <v>96.10594940185547</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -809,16 +809,16 @@
         <v>41122</v>
       </c>
       <c r="B25">
-        <v>38.18632125854492</v>
+        <v>37.89251708984375</v>
       </c>
       <c r="C25">
-        <v>107.2975769042969</v>
+        <v>106.5407791137695</v>
       </c>
       <c r="D25">
         <v>34.54000091552734</v>
       </c>
       <c r="E25">
-        <v>96.83003997802734</v>
+        <v>96.29728698730469</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -826,16 +826,16 @@
         <v>41153</v>
       </c>
       <c r="B26">
-        <v>39.21951293945312</v>
+        <v>38.91776275634766</v>
       </c>
       <c r="C26">
-        <v>107.8466796875</v>
+        <v>107.0860366821289</v>
       </c>
       <c r="D26">
         <v>33.79999923706055</v>
       </c>
       <c r="E26">
-        <v>97.06266021728516</v>
+        <v>96.52866363525391</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -843,16 +843,16 @@
         <v>41183</v>
       </c>
       <c r="B27">
-        <v>39.01791763305664</v>
+        <v>38.71771240234375</v>
       </c>
       <c r="C27">
-        <v>108.5198745727539</v>
+        <v>107.7544555664062</v>
       </c>
       <c r="D27">
         <v>32.43999862670898</v>
       </c>
       <c r="E27">
-        <v>97.12727355957031</v>
+        <v>96.59285736083984</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,16 +860,16 @@
         <v>41214</v>
       </c>
       <c r="B28">
-        <v>39.63952255249023</v>
+        <v>39.33452987670898</v>
       </c>
       <c r="C28">
-        <v>108.8653182983398</v>
+        <v>108.0974884033203</v>
       </c>
       <c r="D28">
         <v>32.95999908447266</v>
       </c>
       <c r="E28">
-        <v>97.37339019775391</v>
+        <v>96.83763885498047</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -877,16 +877,16 @@
         <v>41244</v>
       </c>
       <c r="B29">
-        <v>40.38711547851562</v>
+        <v>40.07637786865234</v>
       </c>
       <c r="C29">
-        <v>107.7936019897461</v>
+        <v>107.033317565918</v>
       </c>
       <c r="D29">
         <v>32.79000091552734</v>
       </c>
       <c r="E29">
-        <v>96.80502319335938</v>
+        <v>96.27239990234375</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -894,16 +894,16 @@
         <v>41275</v>
       </c>
       <c r="B30">
-        <v>42.32629013061523</v>
+        <v>42.00062942504883</v>
       </c>
       <c r="C30">
-        <v>107.6670455932617</v>
+        <v>106.9076461791992</v>
       </c>
       <c r="D30">
         <v>34.29000091552734</v>
       </c>
       <c r="E30">
-        <v>96.86085510253906</v>
+        <v>96.32794952392578</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -911,16 +911,16 @@
         <v>41306</v>
       </c>
       <c r="B31">
-        <v>42.28387832641602</v>
+        <v>41.95854568481445</v>
       </c>
       <c r="C31">
-        <v>107.8720779418945</v>
+        <v>107.1112442016602</v>
       </c>
       <c r="D31">
         <v>32.54000091552734</v>
       </c>
       <c r="E31">
-        <v>97.10276031494141</v>
+        <v>96.56849670410156</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -928,16 +928,16 @@
         <v>41334</v>
       </c>
       <c r="B32">
-        <v>43.05591583251953</v>
+        <v>42.72463989257812</v>
       </c>
       <c r="C32">
-        <v>108.1038208007812</v>
+        <v>107.3413772583008</v>
       </c>
       <c r="D32">
         <v>32.90000152587891</v>
       </c>
       <c r="E32">
-        <v>97.21559143066406</v>
+        <v>96.68073272705078</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -945,16 +945,16 @@
         <v>41365</v>
       </c>
       <c r="B33">
-        <v>44.2775993347168</v>
+        <v>43.93692779541016</v>
       </c>
       <c r="C33">
-        <v>108.8883209228516</v>
+        <v>108.1203460693359</v>
       </c>
       <c r="D33">
         <v>31.29000091552734</v>
       </c>
       <c r="E33">
-        <v>97.77529144287109</v>
+        <v>97.23733520507812</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -962,16 +962,16 @@
         <v>41395</v>
       </c>
       <c r="B34">
-        <v>44.10791778564453</v>
+        <v>43.76855087280273</v>
       </c>
       <c r="C34">
-        <v>104.1254272460938</v>
+        <v>103.3910446166992</v>
       </c>
       <c r="D34">
         <v>30.80999946594238</v>
       </c>
       <c r="E34">
-        <v>96.54450225830078</v>
+        <v>96.01331329345703</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -979,16 +979,16 @@
         <v>41426</v>
       </c>
       <c r="B35">
-        <v>42.41961669921875</v>
+        <v>42.09324264526367</v>
       </c>
       <c r="C35">
-        <v>100.1701507568359</v>
+        <v>99.46365356445312</v>
       </c>
       <c r="D35">
         <v>30.79999923706055</v>
       </c>
       <c r="E35">
-        <v>95.45090484619141</v>
+        <v>94.92575836181641</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -996,16 +996,16 @@
         <v>41456</v>
       </c>
       <c r="B36">
-        <v>44.92794036865234</v>
+        <v>44.5822639465332</v>
       </c>
       <c r="C36">
-        <v>101.1932373046875</v>
+        <v>100.4795227050781</v>
       </c>
       <c r="D36">
         <v>32.54000091552734</v>
       </c>
       <c r="E36">
-        <v>95.85636138916016</v>
+        <v>95.32897186279297</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1013,16 +1013,16 @@
         <v>41487</v>
       </c>
       <c r="B37">
-        <v>43.89688491821289</v>
+        <v>43.55914306640625</v>
       </c>
       <c r="C37">
-        <v>99.41584777832031</v>
+        <v>98.71466827392578</v>
       </c>
       <c r="D37">
         <v>33.54999923706055</v>
       </c>
       <c r="E37">
-        <v>95.24308776855469</v>
+        <v>94.71910858154297</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1030,16 +1030,16 @@
         <v>41518</v>
       </c>
       <c r="B38">
-        <v>46.32844924926758</v>
+        <v>45.97199630737305</v>
       </c>
       <c r="C38">
-        <v>101.13037109375</v>
+        <v>100.4171371459961</v>
       </c>
       <c r="D38">
         <v>32.38000106811523</v>
       </c>
       <c r="E38">
-        <v>96.11497497558594</v>
+        <v>95.58617401123047</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1047,16 +1047,16 @@
         <v>41548</v>
       </c>
       <c r="B39">
-        <v>48.15856552124023</v>
+        <v>47.78803634643555</v>
       </c>
       <c r="C39">
-        <v>101.5302505493164</v>
+        <v>100.8141555786133</v>
       </c>
       <c r="D39">
         <v>31.90999984741211</v>
       </c>
       <c r="E39">
-        <v>96.57410430908203</v>
+        <v>96.04274749755859</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1064,16 +1064,16 @@
         <v>41579</v>
       </c>
       <c r="B40">
-        <v>48.90607452392578</v>
+        <v>48.52978515625</v>
       </c>
       <c r="C40">
-        <v>100.3943099975586</v>
+        <v>99.68623352050781</v>
       </c>
       <c r="D40">
         <v>31.76000022888184</v>
       </c>
       <c r="E40">
-        <v>96.50539398193359</v>
+        <v>95.97444152832031</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1081,16 +1081,16 @@
         <v>41609</v>
       </c>
       <c r="B41">
-        <v>49.50751495361328</v>
+        <v>49.12660598754883</v>
       </c>
       <c r="C41">
-        <v>98.95955657958984</v>
+        <v>98.26158142089844</v>
       </c>
       <c r="D41">
         <v>32.18999862670898</v>
       </c>
       <c r="E41">
-        <v>95.92562866210938</v>
+        <v>95.39784240722656</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1098,16 +1098,16 @@
         <v>41640</v>
       </c>
       <c r="B42">
-        <v>47.60494613647461</v>
+        <v>47.23867416381836</v>
       </c>
       <c r="C42">
-        <v>101.1211242675781</v>
+        <v>100.4079208374023</v>
       </c>
       <c r="D42">
         <v>31.47999954223633</v>
       </c>
       <c r="E42">
-        <v>97.02510833740234</v>
+        <v>96.49128723144531</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1115,16 +1115,16 @@
         <v>41671</v>
       </c>
       <c r="B43">
-        <v>50.0826530456543</v>
+        <v>49.69731521606445</v>
       </c>
       <c r="C43">
-        <v>101.5626983642578</v>
+        <v>100.8464050292969</v>
       </c>
       <c r="D43">
         <v>32.9900016784668</v>
       </c>
       <c r="E43">
-        <v>97.156982421875</v>
+        <v>96.62244415283203</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1132,16 +1132,16 @@
         <v>41699</v>
       </c>
       <c r="B44">
-        <v>50.36854553222656</v>
+        <v>49.98100662231445</v>
       </c>
       <c r="C44">
-        <v>101.0220260620117</v>
+        <v>100.3094940185547</v>
       </c>
       <c r="D44">
         <v>32.97000122070312</v>
       </c>
       <c r="E44">
-        <v>96.85869598388672</v>
+        <v>96.32581329345703</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1149,16 +1149,16 @@
         <v>41730</v>
       </c>
       <c r="B45">
-        <v>50.96631622314453</v>
+        <v>50.57418060302734</v>
       </c>
       <c r="C45">
-        <v>102.3557205200195</v>
+        <v>101.6338043212891</v>
       </c>
       <c r="D45">
         <v>33.29999923706055</v>
       </c>
       <c r="E45">
-        <v>97.45674133300781</v>
+        <v>96.92054748535156</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1166,16 +1166,16 @@
         <v>41760</v>
       </c>
       <c r="B46">
-        <v>51.98857879638672</v>
+        <v>51.58857727050781</v>
       </c>
       <c r="C46">
-        <v>104.1671142578125</v>
+        <v>103.4324340820312</v>
       </c>
       <c r="D46">
         <v>33.13000106811523</v>
       </c>
       <c r="E46">
-        <v>98.11264038085938</v>
+        <v>97.57283020019531</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1183,16 +1183,16 @@
         <v>41791</v>
       </c>
       <c r="B47">
-        <v>52.20516204833984</v>
+        <v>51.80349349975586</v>
       </c>
       <c r="C47">
-        <v>104.1965255737305</v>
+        <v>103.4616241455078</v>
       </c>
       <c r="D47">
         <v>33.91999816894531</v>
       </c>
       <c r="E47">
-        <v>98.06562042236328</v>
+        <v>97.52610778808594</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1200,16 +1200,16 @@
         <v>41821</v>
       </c>
       <c r="B48">
-        <v>52.16961288452148</v>
+        <v>51.76821899414062</v>
       </c>
       <c r="C48">
-        <v>104.3815536499023</v>
+        <v>103.6453628540039</v>
       </c>
       <c r="D48">
         <v>32</v>
       </c>
       <c r="E48">
-        <v>97.8563232421875</v>
+        <v>97.31790161132812</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1217,16 +1217,16 @@
         <v>41852</v>
       </c>
       <c r="B49">
-        <v>53.51360321044922</v>
+        <v>53.10187149047852</v>
       </c>
       <c r="C49">
-        <v>105.0035247802734</v>
+        <v>104.2629241943359</v>
       </c>
       <c r="D49">
         <v>31.5</v>
       </c>
       <c r="E49">
-        <v>98.42964935302734</v>
+        <v>97.88811492919922</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1234,16 +1234,16 @@
         <v>41883</v>
       </c>
       <c r="B50">
-        <v>51.73918914794922</v>
+        <v>51.34111022949219</v>
       </c>
       <c r="C50">
-        <v>102.4235687255859</v>
+        <v>101.701171875</v>
       </c>
       <c r="D50">
         <v>29.59000015258789</v>
       </c>
       <c r="E50">
-        <v>97.92132568359375</v>
+        <v>97.38262176513672</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1251,16 +1251,16 @@
         <v>41913</v>
       </c>
       <c r="B51">
-        <v>52.36286163330078</v>
+        <v>51.95998382568359</v>
       </c>
       <c r="C51">
-        <v>103.5208892822266</v>
+        <v>102.7907638549805</v>
       </c>
       <c r="D51">
         <v>27.82999992370605</v>
       </c>
       <c r="E51">
-        <v>98.61066436767578</v>
+        <v>98.06809234619141</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1268,16 +1268,16 @@
         <v>41944</v>
       </c>
       <c r="B52">
-        <v>53.08317565917969</v>
+        <v>52.67475509643555</v>
       </c>
       <c r="C52">
-        <v>103.685661315918</v>
+        <v>102.9543380737305</v>
       </c>
       <c r="D52">
         <v>25.02000045776367</v>
       </c>
       <c r="E52">
-        <v>99.07101440429688</v>
+        <v>98.52590942382812</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1285,16 +1285,16 @@
         <v>41974</v>
       </c>
       <c r="B53">
-        <v>51.3878173828125</v>
+        <v>50.99243927001953</v>
       </c>
       <c r="C53">
-        <v>102.5413513183594</v>
+        <v>101.8181228637695</v>
       </c>
       <c r="D53">
         <v>21.57999992370605</v>
       </c>
       <c r="E53">
-        <v>98.69416046142578</v>
+        <v>98.15114593505859</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1302,16 +1302,16 @@
         <v>42005</v>
       </c>
       <c r="B54">
-        <v>51.1494140625</v>
+        <v>50.7558708190918</v>
       </c>
       <c r="C54">
-        <v>105.9114608764648</v>
+        <v>105.164436340332</v>
       </c>
       <c r="D54">
         <v>19.70000076293945</v>
       </c>
       <c r="E54">
-        <v>100.7996673583984</v>
+        <v>100.2451324462891</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1319,16 +1319,16 @@
         <v>42036</v>
       </c>
       <c r="B55">
-        <v>53.9669303894043</v>
+        <v>53.55171203613281</v>
       </c>
       <c r="C55">
-        <v>104.5466842651367</v>
+        <v>103.8092956542969</v>
       </c>
       <c r="D55">
         <v>20.8700008392334</v>
       </c>
       <c r="E55">
-        <v>99.73535919189453</v>
+        <v>99.18660736083984</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1336,16 +1336,16 @@
         <v>42064</v>
       </c>
       <c r="B56">
-        <v>53.17838287353516</v>
+        <v>52.76922988891602</v>
       </c>
       <c r="C56">
-        <v>104.0429000854492</v>
+        <v>103.3090667724609</v>
       </c>
       <c r="D56">
         <v>19.5</v>
       </c>
       <c r="E56">
-        <v>100.1368942260742</v>
+        <v>99.58596801757812</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1353,16 +1353,16 @@
         <v>42095</v>
       </c>
       <c r="B57">
-        <v>54.70232772827148</v>
+        <v>54.28144836425781</v>
       </c>
       <c r="C57">
-        <v>104.7481689453125</v>
+        <v>104.0093841552734</v>
       </c>
       <c r="D57">
         <v>21.6299991607666</v>
       </c>
       <c r="E57">
-        <v>100.1291809082031</v>
+        <v>99.57829284667969</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1370,16 +1370,16 @@
         <v>42125</v>
       </c>
       <c r="B58">
-        <v>54.70232772827148</v>
+        <v>54.28144836425781</v>
       </c>
       <c r="C58">
-        <v>103.6948471069336</v>
+        <v>102.9634628295898</v>
       </c>
       <c r="D58">
         <v>21.15999984741211</v>
       </c>
       <c r="E58">
-        <v>99.97268676757812</v>
+        <v>99.42265319824219</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1387,16 +1387,16 @@
         <v>42156</v>
       </c>
       <c r="B59">
-        <v>52.67336273193359</v>
+        <v>52.26809692382812</v>
       </c>
       <c r="C59">
-        <v>102.6323318481445</v>
+        <v>101.9084548950195</v>
       </c>
       <c r="D59">
         <v>21.11000061035156</v>
       </c>
       <c r="E59">
-        <v>99.44699859619141</v>
+        <v>98.89986419677734</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1404,16 +1404,16 @@
         <v>42186</v>
       </c>
       <c r="B60">
-        <v>53.73115539550781</v>
+        <v>53.3177490234375</v>
       </c>
       <c r="C60">
-        <v>103.1819076538086</v>
+        <v>102.4541473388672</v>
       </c>
       <c r="D60">
         <v>18.1200008392334</v>
       </c>
       <c r="E60">
-        <v>99.82435607910156</v>
+        <v>99.27518463134766</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1421,16 +1421,16 @@
         <v>42217</v>
       </c>
       <c r="B61">
-        <v>50.07377624511719</v>
+        <v>49.68851089477539</v>
       </c>
       <c r="C61">
-        <v>102.2018280029297</v>
+        <v>101.4809799194336</v>
       </c>
       <c r="D61">
         <v>18.17000007629395</v>
       </c>
       <c r="E61">
-        <v>99.86798095703125</v>
+        <v>99.31850433349609</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1438,16 +1438,16 @@
         <v>42248</v>
       </c>
       <c r="B62">
-        <v>48.3526611328125</v>
+        <v>47.98063278198242</v>
       </c>
       <c r="C62">
-        <v>101.3866424560547</v>
+        <v>100.6715545654297</v>
       </c>
       <c r="D62">
         <v>17.07999992370605</v>
       </c>
       <c r="E62">
-        <v>100.3474960327148</v>
+        <v>99.79541778564453</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1455,16 +1455,16 @@
         <v>42278</v>
       </c>
       <c r="B63">
-        <v>52.05485534667969</v>
+        <v>51.65434265136719</v>
       </c>
       <c r="C63">
-        <v>101.9152679443359</v>
+        <v>101.1964340209961</v>
       </c>
       <c r="D63">
         <v>17.06999969482422</v>
       </c>
       <c r="E63">
-        <v>100.1781997680664</v>
+        <v>99.62703704833984</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1472,16 +1472,16 @@
         <v>42309</v>
       </c>
       <c r="B64">
-        <v>51.7769660949707</v>
+        <v>51.37859344482422</v>
       </c>
       <c r="C64">
-        <v>101.8253173828125</v>
+        <v>101.1071395874023</v>
       </c>
       <c r="D64">
         <v>15.51000022888184</v>
       </c>
       <c r="E64">
-        <v>99.97386932373047</v>
+        <v>99.42385101318359</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1489,16 +1489,16 @@
         <v>42339</v>
       </c>
       <c r="B65">
-        <v>50.03792190551758</v>
+        <v>49.65293121337891</v>
       </c>
       <c r="C65">
-        <v>100.7960662841797</v>
+        <v>100.0851364135742</v>
       </c>
       <c r="D65">
         <v>14.22999954223633</v>
       </c>
       <c r="E65">
-        <v>99.448974609375</v>
+        <v>98.90180969238281</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1506,16 +1506,16 @@
         <v>42370</v>
       </c>
       <c r="B66">
-        <v>47.99888229370117</v>
+        <v>47.62957763671875</v>
       </c>
       <c r="C66">
-        <v>102.3767623901367</v>
+        <v>101.6546783447266</v>
       </c>
       <c r="D66">
         <v>13.47999954223633</v>
       </c>
       <c r="E66">
-        <v>100.9299774169922</v>
+        <v>100.3746948242188</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1523,16 +1523,16 @@
         <v>42401</v>
       </c>
       <c r="B67">
-        <v>47.39957046508789</v>
+        <v>47.03487777709961</v>
       </c>
       <c r="C67">
-        <v>103.626579284668</v>
+        <v>102.8957214355469</v>
       </c>
       <c r="D67">
         <v>13.19999980926514</v>
       </c>
       <c r="E67">
-        <v>101.4031829833984</v>
+        <v>100.8452911376953</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1540,16 +1540,16 @@
         <v>42430</v>
       </c>
       <c r="B68">
-        <v>50.90460205078125</v>
+        <v>50.512939453125</v>
       </c>
       <c r="C68">
-        <v>105.3543243408203</v>
+        <v>104.6112289428711</v>
       </c>
       <c r="D68">
         <v>13.78999996185303</v>
       </c>
       <c r="E68">
-        <v>102.1274871826172</v>
+        <v>101.5656509399414</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1557,16 +1557,16 @@
         <v>42461</v>
       </c>
       <c r="B69">
-        <v>51.58562088012695</v>
+        <v>51.188720703125</v>
       </c>
       <c r="C69">
-        <v>105.5748672485352</v>
+        <v>104.8302688598633</v>
       </c>
       <c r="D69">
         <v>15.22000026702881</v>
       </c>
       <c r="E69">
-        <v>102.2497634887695</v>
+        <v>101.6871719360352</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1574,16 +1574,16 @@
         <v>42491</v>
       </c>
       <c r="B70">
-        <v>51.75814819335938</v>
+        <v>51.35992050170898</v>
       </c>
       <c r="C70">
-        <v>104.8948211669922</v>
+        <v>104.1550140380859</v>
       </c>
       <c r="D70">
         <v>15.42000007629395</v>
       </c>
       <c r="E70">
-        <v>102.1116638183594</v>
+        <v>101.5498962402344</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1591,16 +1591,16 @@
         <v>42522</v>
       </c>
       <c r="B71">
-        <v>51.05896377563477</v>
+        <v>50.66611480712891</v>
       </c>
       <c r="C71">
-        <v>107.2198638916016</v>
+        <v>106.4636383056641</v>
       </c>
       <c r="D71">
         <v>15.52000045776367</v>
       </c>
       <c r="E71">
-        <v>103.7515029907227</v>
+        <v>103.1807174682617</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1608,16 +1608,16 @@
         <v>42552</v>
       </c>
       <c r="B72">
-        <v>53.68286514282227</v>
+        <v>53.26982879638672</v>
       </c>
       <c r="C72">
-        <v>107.4651412963867</v>
+        <v>106.7071762084961</v>
       </c>
       <c r="D72">
         <v>13.96000003814697</v>
       </c>
       <c r="E72">
-        <v>103.8885498046875</v>
+        <v>103.3169555664062</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1625,16 +1625,16 @@
         <v>42583</v>
       </c>
       <c r="B73">
-        <v>53.86687088012695</v>
+        <v>53.45241546630859</v>
       </c>
       <c r="C73">
-        <v>107.1447601318359</v>
+        <v>106.3890609741211</v>
       </c>
       <c r="D73">
         <v>14.23999977111816</v>
       </c>
       <c r="E73">
-        <v>103.5258865356445</v>
+        <v>102.9562911987305</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1642,16 +1642,16 @@
         <v>42614</v>
       </c>
       <c r="B74">
-        <v>54.37287521362305</v>
+        <v>53.95453262329102</v>
       </c>
       <c r="C74">
-        <v>107.9860916137695</v>
+        <v>107.2244720458984</v>
       </c>
       <c r="D74">
         <v>14.81999969482422</v>
       </c>
       <c r="E74">
-        <v>103.7384414672852</v>
+        <v>103.1676788330078</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1659,16 +1659,16 @@
         <v>42644</v>
       </c>
       <c r="B75">
-        <v>53.333251953125</v>
+        <v>52.92290878295898</v>
       </c>
       <c r="C75">
-        <v>107.7903671264648</v>
+        <v>107.0301361083984</v>
       </c>
       <c r="D75">
         <v>14.5600004196167</v>
       </c>
       <c r="E75">
-        <v>103.2524185180664</v>
+        <v>102.6843414306641</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1676,16 +1676,16 @@
         <v>42675</v>
       </c>
       <c r="B76">
-        <v>53.88527297973633</v>
+        <v>53.47068023681641</v>
       </c>
       <c r="C76">
-        <v>105.5575637817383</v>
+        <v>104.8130493164062</v>
       </c>
       <c r="D76">
         <v>14.92000007629395</v>
       </c>
       <c r="E76">
-        <v>101.3448486328125</v>
+        <v>100.7872695922852</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1693,16 +1693,16 @@
         <v>42705</v>
       </c>
       <c r="B77">
-        <v>54.43727874755859</v>
+        <v>54.01843643188477</v>
       </c>
       <c r="C77">
-        <v>105.2877426147461</v>
+        <v>104.5451431274414</v>
       </c>
       <c r="D77">
         <v>15.67000007629395</v>
       </c>
       <c r="E77">
-        <v>101.4268112182617</v>
+        <v>100.8687744140625</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1710,16 +1710,16 @@
         <v>42736</v>
       </c>
       <c r="B78">
-        <v>56.53976440429688</v>
+        <v>56.1047477722168</v>
       </c>
       <c r="C78">
-        <v>106.4563369750977</v>
+        <v>105.7054901123047</v>
       </c>
       <c r="D78">
         <v>15.43000030517578</v>
       </c>
       <c r="E78">
-        <v>101.9187240600586</v>
+        <v>101.3579788208008</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1727,16 +1727,16 @@
         <v>42767</v>
       </c>
       <c r="B79">
-        <v>57.96046447753906</v>
+        <v>57.5145149230957</v>
       </c>
       <c r="C79">
-        <v>106.8945541381836</v>
+        <v>106.1406021118164</v>
       </c>
       <c r="D79">
         <v>15.44999980926514</v>
       </c>
       <c r="E79">
-        <v>102.1501998901367</v>
+        <v>101.5881576538086</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1744,16 +1744,16 @@
         <v>42795</v>
       </c>
       <c r="B80">
-        <v>58.74044418334961</v>
+        <v>58.28849411010742</v>
       </c>
       <c r="C80">
-        <v>106.8945541381836</v>
+        <v>106.1406021118164</v>
       </c>
       <c r="D80">
         <v>14.81999969482422</v>
       </c>
       <c r="E80">
-        <v>102.1950454711914</v>
+        <v>101.6328125</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1761,16 +1761,16 @@
         <v>42826</v>
       </c>
       <c r="B81">
-        <v>59.68756866455078</v>
+        <v>59.22833251953125</v>
       </c>
       <c r="C81">
-        <v>107.2302017211914</v>
+        <v>106.4738922119141</v>
       </c>
       <c r="D81">
         <v>14.43000030517578</v>
       </c>
       <c r="E81">
-        <v>102.8951873779297</v>
+        <v>102.3290405273438</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1778,16 +1778,16 @@
         <v>42856</v>
       </c>
       <c r="B82">
-        <v>61.00612640380859</v>
+        <v>60.5367431640625</v>
       </c>
       <c r="C82">
-        <v>107.0672760009766</v>
+        <v>106.3121032714844</v>
       </c>
       <c r="D82">
         <v>14.26000022888184</v>
       </c>
       <c r="E82">
-        <v>103.4364547729492</v>
+        <v>102.8673629760742</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1795,16 +1795,16 @@
         <v>42887</v>
       </c>
       <c r="B83">
-        <v>60.81112289428711</v>
+        <v>60.34324264526367</v>
       </c>
       <c r="C83">
-        <v>106.1623916625977</v>
+        <v>105.4136428833008</v>
       </c>
       <c r="D83">
         <v>14.02000045776367</v>
       </c>
       <c r="E83">
-        <v>103.1109924316406</v>
+        <v>102.5436935424805</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1812,16 +1812,16 @@
         <v>42917</v>
       </c>
       <c r="B84">
-        <v>63.16688537597656</v>
+        <v>62.68087768554688</v>
       </c>
       <c r="C84">
-        <v>106.6175003051758</v>
+        <v>105.8655395507812</v>
       </c>
       <c r="D84">
         <v>14.60999965667725</v>
       </c>
       <c r="E84">
-        <v>103.6523361206055</v>
+        <v>103.0820770263672</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1829,16 +1829,16 @@
         <v>42948</v>
       </c>
       <c r="B85">
-        <v>63.42038726806641</v>
+        <v>62.93243026733398</v>
       </c>
       <c r="C85">
-        <v>107.795524597168</v>
+        <v>107.0352554321289</v>
       </c>
       <c r="D85">
         <v>14.46000003814697</v>
       </c>
       <c r="E85">
-        <v>104.2725219726562</v>
+        <v>103.6988296508789</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1846,16 +1846,16 @@
         <v>42979</v>
       </c>
       <c r="B86">
-        <v>64.61273956298828</v>
+        <v>64.11560821533203</v>
       </c>
       <c r="C86">
-        <v>107.0217819213867</v>
+        <v>106.2669296264648</v>
       </c>
       <c r="D86">
         <v>14.89999961853027</v>
       </c>
       <c r="E86">
-        <v>103.8033828735352</v>
+        <v>103.2322540283203</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1863,16 +1863,16 @@
         <v>43009</v>
       </c>
       <c r="B87">
-        <v>66.00225830078125</v>
+        <v>65.49443817138672</v>
       </c>
       <c r="C87">
-        <v>107.4512405395508</v>
+        <v>106.6933746337891</v>
       </c>
       <c r="D87">
         <v>15.47999954223633</v>
       </c>
       <c r="E87">
-        <v>103.7217483520508</v>
+        <v>103.1511077880859</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1880,16 +1880,16 @@
         <v>43040</v>
       </c>
       <c r="B88">
-        <v>67.33544921875</v>
+        <v>66.81736755371094</v>
       </c>
       <c r="C88">
-        <v>107.3833312988281</v>
+        <v>106.6259384155273</v>
       </c>
       <c r="D88">
         <v>15.68000030517578</v>
       </c>
       <c r="E88">
-        <v>103.3955535888672</v>
+        <v>102.8267211914062</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1897,16 +1897,16 @@
         <v>43070</v>
       </c>
       <c r="B89">
-        <v>67.68282318115234</v>
+        <v>67.16207122802734</v>
       </c>
       <c r="C89">
-        <v>107.9680023193359</v>
+        <v>107.2065048217773</v>
       </c>
       <c r="D89">
         <v>16.28000068664551</v>
       </c>
       <c r="E89">
-        <v>103.220817565918</v>
+        <v>102.6529312133789</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1914,16 +1914,16 @@
         <v>43101</v>
       </c>
       <c r="B90">
-        <v>72.20665740966797</v>
+        <v>71.65110015869141</v>
       </c>
       <c r="C90">
-        <v>107.6725387573242</v>
+        <v>106.9130935668945</v>
       </c>
       <c r="D90">
         <v>16.88999938964844</v>
       </c>
       <c r="E90">
-        <v>102.6368637084961</v>
+        <v>102.072151184082</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1931,16 +1931,16 @@
         <v>43132</v>
       </c>
       <c r="B91">
-        <v>68.97537231445312</v>
+        <v>68.44467163085938</v>
       </c>
       <c r="C91">
-        <v>106.5397262573242</v>
+        <v>105.7883071899414</v>
       </c>
       <c r="D91">
         <v>16.27000045776367</v>
       </c>
       <c r="E91">
-        <v>101.9668121337891</v>
+        <v>101.4058151245117</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1948,16 +1948,16 @@
         <v>43160</v>
       </c>
       <c r="B92">
-        <v>67.94248962402344</v>
+        <v>67.41973876953125</v>
       </c>
       <c r="C92">
-        <v>107.6353988647461</v>
+        <v>106.8762435913086</v>
       </c>
       <c r="D92">
         <v>16.64999961853027</v>
       </c>
       <c r="E92">
-        <v>102.3504409790039</v>
+        <v>101.7873382568359</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1965,16 +1965,16 @@
         <v>43191</v>
       </c>
       <c r="B93">
-        <v>68.21728515625</v>
+        <v>67.69242095947266</v>
       </c>
       <c r="C93">
-        <v>107.2164535522461</v>
+        <v>106.4602661132812</v>
       </c>
       <c r="D93">
         <v>17.42000007629395</v>
       </c>
       <c r="E93">
-        <v>101.8006744384766</v>
+        <v>101.2406234741211</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1982,16 +1982,16 @@
         <v>43221</v>
       </c>
       <c r="B94">
-        <v>68.53948211669922</v>
+        <v>68.01213836669922</v>
       </c>
       <c r="C94">
-        <v>107.3700180053711</v>
+        <v>106.6127395629883</v>
       </c>
       <c r="D94">
         <v>17.69000053405762</v>
       </c>
       <c r="E94">
-        <v>102.3552551269531</v>
+        <v>101.792121887207</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1999,16 +1999,16 @@
         <v>43252</v>
       </c>
       <c r="B95">
-        <v>67.39289855957031</v>
+        <v>66.87437438964844</v>
       </c>
       <c r="C95">
-        <v>108.2218551635742</v>
+        <v>107.4585571289062</v>
       </c>
       <c r="D95">
         <v>17.90999984741211</v>
       </c>
       <c r="E95">
-        <v>102.3777542114258</v>
+        <v>101.8144836425781</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2016,16 +2016,16 @@
         <v>43282</v>
       </c>
       <c r="B96">
-        <v>70.22692108154297</v>
+        <v>69.68659210205078</v>
       </c>
       <c r="C96">
-        <v>107.5555572509766</v>
+        <v>106.7969665527344</v>
       </c>
       <c r="D96">
         <v>17.26000022888184</v>
       </c>
       <c r="E96">
-        <v>102.3879470825195</v>
+        <v>101.8246383666992</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2033,16 +2033,16 @@
         <v>43313</v>
       </c>
       <c r="B97">
-        <v>70.71553039550781</v>
+        <v>70.17144775390625</v>
       </c>
       <c r="C97">
-        <v>108.2091979980469</v>
+        <v>107.4459915161133</v>
       </c>
       <c r="D97">
         <v>17.44000053405762</v>
       </c>
       <c r="E97">
-        <v>102.8863220214844</v>
+        <v>102.3202667236328</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2050,16 +2050,16 @@
         <v>43344</v>
       </c>
       <c r="B98">
-        <v>71.14667510986328</v>
+        <v>70.59927368164062</v>
       </c>
       <c r="C98">
-        <v>107.2388381958008</v>
+        <v>106.4824905395508</v>
       </c>
       <c r="D98">
         <v>18.11000061035156</v>
       </c>
       <c r="E98">
-        <v>102.5477600097656</v>
+        <v>101.9835586547852</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2067,16 +2067,16 @@
         <v>43374</v>
       </c>
       <c r="B99">
-        <v>65.85808563232422</v>
+        <v>65.35137176513672</v>
       </c>
       <c r="C99">
-        <v>105.8778457641602</v>
+        <v>105.1310958862305</v>
       </c>
       <c r="D99">
         <v>16.98999977111816</v>
       </c>
       <c r="E99">
-        <v>102.3439178466797</v>
+        <v>101.7808151245117</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2084,16 +2084,16 @@
         <v>43405</v>
       </c>
       <c r="B100">
-        <v>66.90239715576172</v>
+        <v>66.38764953613281</v>
       </c>
       <c r="C100">
-        <v>106.3932800292969</v>
+        <v>105.6428833007812</v>
       </c>
       <c r="D100">
         <v>15.10999965667725</v>
       </c>
       <c r="E100">
-        <v>102.8014755249023</v>
+        <v>102.2358856201172</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2101,16 +2101,16 @@
         <v>43435</v>
       </c>
       <c r="B101">
-        <v>61.47011184692383</v>
+        <v>60.99716186523438</v>
       </c>
       <c r="C101">
-        <v>106.7161865234375</v>
+        <v>105.963508605957</v>
       </c>
       <c r="D101">
         <v>14.02000045776367</v>
       </c>
       <c r="E101">
-        <v>103.9654006958008</v>
+        <v>103.3934020996094</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2118,16 +2118,16 @@
         <v>43466</v>
       </c>
       <c r="B102">
-        <v>67.07124328613281</v>
+        <v>66.55519866943359</v>
       </c>
       <c r="C102">
-        <v>108.5730133056641</v>
+        <v>107.807243347168</v>
       </c>
       <c r="D102">
         <v>15.1899995803833</v>
       </c>
       <c r="E102">
-        <v>105.2227020263672</v>
+        <v>104.6437606811523</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2135,16 +2135,16 @@
         <v>43497</v>
       </c>
       <c r="B103">
-        <v>68.72577667236328</v>
+        <v>68.19699859619141</v>
       </c>
       <c r="C103">
-        <v>108.3872985839844</v>
+        <v>107.6228332519531</v>
       </c>
       <c r="D103">
         <v>15.72000026702881</v>
       </c>
       <c r="E103">
-        <v>105.1069641113281</v>
+        <v>104.528678894043</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2152,16 +2152,16 @@
         <v>43525</v>
       </c>
       <c r="B104">
-        <v>69.8094482421875</v>
+        <v>69.27233123779297</v>
       </c>
       <c r="C104">
-        <v>110.5280532836914</v>
+        <v>109.7484970092773</v>
       </c>
       <c r="D104">
         <v>15.94999980926514</v>
       </c>
       <c r="E104">
-        <v>106.5524215698242</v>
+        <v>105.966194152832</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2169,16 +2169,16 @@
         <v>43556</v>
       </c>
       <c r="B105">
-        <v>72.19932556152344</v>
+        <v>71.64382171630859</v>
       </c>
       <c r="C105">
-        <v>110.7724304199219</v>
+        <v>109.9911575317383</v>
       </c>
       <c r="D105">
         <v>16.38999938964844</v>
       </c>
       <c r="E105">
-        <v>106.6903610229492</v>
+        <v>106.1033706665039</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2186,16 +2186,16 @@
         <v>43586</v>
       </c>
       <c r="B106">
-        <v>67.81626892089844</v>
+        <v>67.29448699951172</v>
       </c>
       <c r="C106">
-        <v>112.678596496582</v>
+        <v>111.8838729858398</v>
       </c>
       <c r="D106">
         <v>15.01000022888184</v>
       </c>
       <c r="E106">
-        <v>108.1348190307617</v>
+        <v>107.5398712158203</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2203,16 +2203,16 @@
         <v>43617</v>
       </c>
       <c r="B107">
-        <v>71.31883239746094</v>
+        <v>70.77010345458984</v>
       </c>
       <c r="C107">
-        <v>112.9285202026367</v>
+        <v>112.1320343017578</v>
       </c>
       <c r="D107">
         <v>15.64999961853027</v>
       </c>
       <c r="E107">
-        <v>109.1432876586914</v>
+        <v>108.5428009033203</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2220,16 +2220,16 @@
         <v>43647</v>
       </c>
       <c r="B108">
-        <v>72.26683044433594</v>
+        <v>71.71080780029297</v>
       </c>
       <c r="C108">
-        <v>113.3122253417969</v>
+        <v>112.5130310058594</v>
       </c>
       <c r="D108">
         <v>15.57999992370605</v>
       </c>
       <c r="E108">
-        <v>109.1565780639648</v>
+        <v>108.5560302734375</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2237,16 +2237,16 @@
         <v>43678</v>
       </c>
       <c r="B109">
-        <v>70.66982269287109</v>
+        <v>70.12609100341797</v>
       </c>
       <c r="C109">
-        <v>116.2981796264648</v>
+        <v>115.4779281616211</v>
       </c>
       <c r="D109">
         <v>14.81999969482422</v>
       </c>
       <c r="E109">
-        <v>111.1761627197266</v>
+        <v>110.5644912719727</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2254,16 +2254,16 @@
         <v>43709</v>
       </c>
       <c r="B110">
-        <v>72.25703430175781</v>
+        <v>71.70108795166016</v>
       </c>
       <c r="C110">
-        <v>115.2237777709961</v>
+        <v>114.4111022949219</v>
       </c>
       <c r="D110">
         <v>15.05000019073486</v>
       </c>
       <c r="E110">
-        <v>110.6976547241211</v>
+        <v>110.0886306762695</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2271,16 +2271,16 @@
         <v>43739</v>
       </c>
       <c r="B111">
-        <v>74.23613739013672</v>
+        <v>73.66496276855469</v>
       </c>
       <c r="C111">
-        <v>115.053596496582</v>
+        <v>114.2421112060547</v>
       </c>
       <c r="D111">
         <v>15.17000007629395</v>
       </c>
       <c r="E111">
-        <v>111.1430358886719</v>
+        <v>110.5315399169922</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2288,16 +2288,16 @@
         <v>43770</v>
       </c>
       <c r="B112">
-        <v>75.97030639648438</v>
+        <v>75.38578796386719</v>
       </c>
       <c r="C112">
-        <v>115.5655899047852</v>
+        <v>114.75048828125</v>
       </c>
       <c r="D112">
         <v>15.22999954223633</v>
       </c>
       <c r="E112">
-        <v>110.9069442749023</v>
+        <v>110.2967758178711</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2305,16 +2305,16 @@
         <v>43800</v>
       </c>
       <c r="B113">
-        <v>77.64569091796875</v>
+        <v>77.04828643798828</v>
       </c>
       <c r="C113">
-        <v>115.7742156982422</v>
+        <v>114.9576568603516</v>
       </c>
       <c r="D113">
         <v>16.20999908447266</v>
       </c>
       <c r="E113">
-        <v>110.7724075317383</v>
+        <v>110.1629409790039</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2322,16 +2322,16 @@
         <v>43831</v>
       </c>
       <c r="B114">
-        <v>77.45472717285156</v>
+        <v>76.85878753662109</v>
       </c>
       <c r="C114">
-        <v>118.463752746582</v>
+        <v>117.6282196044922</v>
       </c>
       <c r="D114">
         <v>14.48999977111816</v>
       </c>
       <c r="E114">
-        <v>112.8648300170898</v>
+        <v>112.2438659667969</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2339,16 +2339,16 @@
         <v>43862</v>
       </c>
       <c r="B115">
-        <v>71.65380096435547</v>
+        <v>71.10249328613281</v>
       </c>
       <c r="C115">
-        <v>119.4288940429688</v>
+        <v>118.586555480957</v>
       </c>
       <c r="D115">
         <v>13.35999965667725</v>
       </c>
       <c r="E115">
-        <v>114.0393600463867</v>
+        <v>113.4119491577148</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2356,16 +2356,16 @@
         <v>43891</v>
       </c>
       <c r="B116">
-        <v>62.04509353637695</v>
+        <v>61.56771850585938</v>
       </c>
       <c r="C116">
-        <v>117.4547576904297</v>
+        <v>116.626335144043</v>
       </c>
       <c r="D116">
         <v>9.300000190734863</v>
       </c>
       <c r="E116">
-        <v>113.4373321533203</v>
+        <v>112.813232421875</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2373,16 +2373,16 @@
         <v>43922</v>
       </c>
       <c r="B117">
-        <v>68.14350128173828</v>
+        <v>67.61920166015625</v>
       </c>
       <c r="C117">
-        <v>120.8313751220703</v>
+        <v>119.9791412353516</v>
       </c>
       <c r="D117">
         <v>8.479999542236328</v>
       </c>
       <c r="E117">
-        <v>115.4299163818359</v>
+        <v>114.7948379516602</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2390,16 +2390,16 @@
         <v>43952</v>
       </c>
       <c r="B118">
-        <v>71.6141357421875</v>
+        <v>71.06313323974609</v>
       </c>
       <c r="C118">
-        <v>121.5007934570312</v>
+        <v>120.6438369750977</v>
       </c>
       <c r="D118">
         <v>9.819999694824219</v>
       </c>
       <c r="E118">
-        <v>116.3250961303711</v>
+        <v>115.6850891113281</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2407,16 +2407,16 @@
         <v>43983</v>
       </c>
       <c r="B119">
-        <v>73.10155487060547</v>
+        <v>72.53910827636719</v>
       </c>
       <c r="C119">
-        <v>123</v>
+        <v>122.1324691772461</v>
       </c>
       <c r="D119">
         <v>10.36999988555908</v>
       </c>
       <c r="E119">
-        <v>117.002082824707</v>
+        <v>116.3583679199219</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2424,16 +2424,16 @@
         <v>44013</v>
       </c>
       <c r="B120">
-        <v>77.66999816894531</v>
+        <v>77.07240295410156</v>
       </c>
       <c r="C120">
-        <v>125.8600006103516</v>
+        <v>124.972297668457</v>
       </c>
       <c r="D120">
         <v>10.75</v>
       </c>
       <c r="E120">
-        <v>117.7793807983398</v>
+        <v>117.1313705444336</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2441,16 +2441,67 @@
         <v>44044</v>
       </c>
       <c r="B121">
-        <v>82.34999847412109</v>
+        <v>81.71640014648438</v>
       </c>
       <c r="C121">
-        <v>126.9800033569336</v>
+        <v>126.0844116210938</v>
       </c>
       <c r="D121">
         <v>11.25</v>
       </c>
       <c r="E121">
-        <v>117.6117858886719</v>
+        <v>116.9647064208984</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B122">
+        <v>79.30509185791016</v>
+      </c>
+      <c r="C122">
+        <v>125.6077880859375</v>
+      </c>
+      <c r="D122">
+        <v>10.75</v>
+      </c>
+      <c r="E122">
+        <v>116.9214859008789</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B123">
+        <v>77.53878784179688</v>
+      </c>
+      <c r="C123">
+        <v>124.3467559814453</v>
+      </c>
+      <c r="D123">
+        <v>10.38000011444092</v>
+      </c>
+      <c r="E123">
+        <v>116.6148681640625</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B124">
+        <v>86.6580810546875</v>
+      </c>
+      <c r="C124">
+        <v>125.9435119628906</v>
+      </c>
+      <c r="D124">
+        <v>11.64999961853027</v>
+      </c>
+      <c r="E124">
+        <v>117.1997756958008</v>
       </c>
     </row>
   </sheetData>
